--- a/data/source/previous_releases/Employment July 2017.xlsx
+++ b/data/source/previous_releases/Employment July 2017.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17726"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\RAuxier\Box Sync\TPC\CENTER\SLFI\SEM\Online SEM\Employment\2017\July 2017\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="21080" windowHeight="9880" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="735" windowWidth="21075" windowHeight="9885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Employment_Table" sheetId="4" r:id="rId1"/>
@@ -19,12 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">SCRATCH!$A$2:$E$53</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -417,19 +417,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="11">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="168" formatCode="m/d"/>
-    <numFmt numFmtId="169" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
-    <numFmt numFmtId="170" formatCode="0.0000000000"/>
-    <numFmt numFmtId="171" formatCode="0%_);\(0%\)"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
-    <numFmt numFmtId="173" formatCode="[$-409]mmm\-yy;@"/>
-    <numFmt numFmtId="174" formatCode="#,##0.0"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0\ ;\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="m/d"/>
+    <numFmt numFmtId="167" formatCode="_([$€-2]* #,##0.00_);_([$€-2]* \(#,##0.00\);_([$€-2]* &quot;-&quot;??_)"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000"/>
+    <numFmt numFmtId="169" formatCode="0%_);\(0%\)"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="[$-409]mmm\-yy;@"/>
+    <numFmt numFmtId="172" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="76" x14ac:knownFonts="1">
     <font>
@@ -1268,7 +1268,7 @@
       <left/>
       <right/>
       <top style="double">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1277,7 +1277,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1286,10 +1286,10 @@
       <left/>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1297,10 +1297,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1309,28 +1309,28 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right/>
       <top/>
@@ -1382,14 +1382,14 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyAlignment="0"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="39" fontId="21" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyFill="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="10" applyFill="0"/>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="10" applyFill="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFont="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyFill="0">
       <alignment vertical="top"/>
@@ -1397,7 +1397,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyFill="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="0" borderId="11" applyFill="0"/>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="11" applyFill="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyFill="0">
       <alignment wrapText="1"/>
@@ -1405,7 +1405,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyFill="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="19" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFill="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1415,7 +1415,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyFill="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" applyFill="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1425,7 +1425,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" applyFill="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1435,15 +1435,15 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFill="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="32" fillId="0" borderId="0" applyFill="0"/>
-    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="43" fontId="30" fillId="0" borderId="0" applyFill="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyFill="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyFill="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="35" fillId="0" borderId="0" applyFill="0"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" applyFill="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
@@ -1453,12 +1453,12 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyFill="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="167" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1475,7 +1475,7 @@
     <xf numFmtId="10" fontId="20" fillId="37" borderId="15" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0"/>
     <xf numFmtId="37" fontId="41" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
@@ -1485,7 +1485,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="4" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1589,27 +1589,27 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="60" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="2" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="171" fontId="62" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1617,21 +1617,21 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="65" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="66" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="171" fontId="67" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
@@ -1645,20 +1645,20 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="68" fillId="0" borderId="0"/>
@@ -1669,27 +1669,27 @@
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="37" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="70" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="70" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
@@ -1833,16 +1833,16 @@
     <xf numFmtId="39" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" indent="9"/>
     </xf>
-    <xf numFmtId="173" fontId="71" fillId="0" borderId="16">
+    <xf numFmtId="171" fontId="71" fillId="0" borderId="16">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1870,11 +1870,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1885,18 +1885,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1904,9 +1904,9 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1927,9 +1927,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1938,25 +1938,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="59" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
@@ -1966,7 +1966,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1977,18 +1977,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2040,7 +2040,7 @@
   </cellStyleXfs>
   <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="172" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="56" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="17" fontId="58" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2068,18 +2068,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="496" applyFont="1"/>
-    <xf numFmtId="172" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="57" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="149" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="40" borderId="0" xfId="149" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="56" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="56" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2087,10 +2087,10 @@
     <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="172" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="75" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="174" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2910,18 +2910,18 @@
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="7" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="28" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>123</v>
       </c>
@@ -2931,7 +2931,7 @@
       <c r="E1" s="38"/>
       <c r="F1" s="38"/>
     </row>
-    <row r="2" spans="1:10" ht="36">
+    <row r="2" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>53</v>
       </c>
@@ -2955,7 +2955,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -2979,7 +2979,7 @@
         <v>0.4537898189333589</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>-0.50026329647183676</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>-0.37037037037036535</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>0.87506076810890399</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>-0.51740357478833321</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>1.9490851233094686</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
@@ -3123,7 +3123,7 @@
         <v>0.91463414634147533</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>-1.313559322033897</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>-1.2176560121765601</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>0.33627574611181377</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>9</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>1.2938496583143611</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>0.74171029668412825</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>-2.0634920634920562</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>12</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>2.8712059064807116</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>13</v>
       </c>
@@ -3315,7 +3315,7 @@
         <v>-0.27804642166344706</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>14</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>0.11723329425556983</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>15</v>
       </c>
@@ -3363,7 +3363,7 @@
         <v>-0.92915214866434725</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>16</v>
       </c>
@@ -3387,7 +3387,7 @@
         <v>0.50860719874803451</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>17</v>
       </c>
@@ -3411,7 +3411,7 @@
         <v>-0.18838304552590834</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>18</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>-1.1100832562442209</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>19</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>1.5952143569292199</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>20</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>0.49534376857538476</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>21</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>0.50538343221269155</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>22</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>2.4945950440711684</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>23</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>1.1578449905482069</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>24</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>0.32719836400818547</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>25</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>2.9277218664226945</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>26</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>0.76419213973799582</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>27</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>-1.4942528735632177</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>28</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>0.94221105527638738</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>29</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>1.4428412874583962</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>30</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>-0.47100860808837464</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>31</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>-2.8287061288632787</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>32</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>0.5739575409722919</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>33</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>1.2873185428649681</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>34</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>-0.59808612440190867</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>35</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>0.61672876782732367</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>36</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>0.25452488687782715</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>37</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>0.45395590142673914</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>38</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>-1.8990012660008437</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>39</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>0.16447368421053099</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>40</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>0.21774632553075435</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>41</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>1.5170670037926604</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>1.685787871692801</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>43</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>1.4190273965508204</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>44</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>1.7580577647551276</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>45</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>-2.9513888888888951</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>46</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>0.19596864501678635</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>47</v>
       </c>
@@ -4131,7 +4131,7 @@
         <v>2.8955171812314662</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>48</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>-1.2226512226512276</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>49</v>
       </c>
@@ -4179,7 +4179,7 @@
         <v>0.36337209302326201</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>50</v>
       </c>
@@ -4208,12 +4208,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4225,17 +4220,17 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" style="2" customWidth="1"/>
     <col min="5" max="5" width="19" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="2"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>51</v>
       </c>
@@ -4256,7 +4251,7 @@
         <v>0.4537898189333589</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="36">
+    <row r="2" spans="1:12" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>53</v>
       </c>
@@ -4278,7 +4273,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
@@ -4299,7 +4294,7 @@
         <v>2.9277218664226945</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>47</v>
       </c>
@@ -4320,7 +4315,7 @@
         <v>2.8955171812314662</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
@@ -4343,7 +4338,7 @@
       <c r="J5" s="18"/>
       <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>22</v>
       </c>
@@ -4368,7 +4363,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="22" t="s">
         <v>4</v>
       </c>
@@ -4394,7 +4389,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="18"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>44</v>
       </c>
@@ -4420,7 +4415,7 @@
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>42</v>
       </c>
@@ -4446,7 +4441,7 @@
       <c r="K9" s="18"/>
       <c r="L9" s="18"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
         <v>19</v>
       </c>
@@ -4472,7 +4467,7 @@
       <c r="K10" s="18"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>41</v>
       </c>
@@ -4498,7 +4493,7 @@
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>29</v>
       </c>
@@ -4524,7 +4519,7 @@
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>43</v>
       </c>
@@ -4550,7 +4545,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="18"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
@@ -4576,7 +4571,7 @@
       <c r="K14" s="8"/>
       <c r="L14" s="22"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>33</v>
       </c>
@@ -4601,7 +4596,7 @@
       <c r="J15" s="7"/>
       <c r="L15" s="18"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>23</v>
       </c>
@@ -4626,7 +4621,7 @@
       <c r="J16" s="18"/>
       <c r="L16" s="18"/>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="22" t="s">
         <v>28</v>
       </c>
@@ -4650,7 +4645,7 @@
       <c r="J17" s="7"/>
       <c r="L17" s="18"/>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>5</v>
       </c>
@@ -4672,7 +4667,7 @@
       </c>
       <c r="J18" s="18"/>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>2</v>
       </c>
@@ -4696,7 +4691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>26</v>
       </c>
@@ -4720,7 +4715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>10</v>
       </c>
@@ -4744,7 +4739,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>35</v>
       </c>
@@ -4768,7 +4763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>32</v>
       </c>
@@ -4794,7 +4789,7 @@
       <c r="K23" s="8"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>16</v>
       </c>
@@ -4819,7 +4814,7 @@
       </c>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>21</v>
       </c>
@@ -4843,7 +4838,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>20</v>
       </c>
@@ -4867,7 +4862,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="22" t="s">
         <v>37</v>
       </c>
@@ -4891,7 +4886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>49</v>
       </c>
@@ -4915,7 +4910,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>8</v>
       </c>
@@ -4936,7 +4931,7 @@
         <v>0.33627574611181377</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
@@ -4957,7 +4952,7 @@
         <v>0.32719836400818547</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>36</v>
       </c>
@@ -4978,7 +4973,7 @@
         <v>0.25452488687782715</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="s">
         <v>40</v>
       </c>
@@ -5000,7 +4995,7 @@
       </c>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>46</v>
       </c>
@@ -5022,7 +5017,7 @@
       </c>
       <c r="I33" s="18"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>39</v>
       </c>
@@ -5044,7 +5039,7 @@
       </c>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>14</v>
       </c>
@@ -5066,7 +5061,7 @@
       </c>
       <c r="I35" s="18"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>17</v>
       </c>
@@ -5089,7 +5084,7 @@
       <c r="I36" s="18"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:14">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="18" t="s">
         <v>13</v>
       </c>
@@ -5113,7 +5108,7 @@
       <c r="J37" s="18"/>
       <c r="L37" s="18"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="18" t="s">
         <v>1</v>
       </c>
@@ -5137,7 +5132,7 @@
       <c r="J38" s="18"/>
       <c r="L38" s="18"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="18" t="s">
         <v>30</v>
       </c>
@@ -5162,7 +5157,7 @@
       <c r="L39" s="18"/>
       <c r="N39" s="18"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="18" t="s">
         <v>0</v>
       </c>
@@ -5187,7 +5182,7 @@
       <c r="L40" s="18"/>
       <c r="N40" s="18"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>3</v>
       </c>
@@ -5212,7 +5207,7 @@
       <c r="L41" s="22"/>
       <c r="N41" s="8"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="18" t="s">
         <v>34</v>
       </c>
@@ -5237,7 +5232,7 @@
       <c r="L42" s="18"/>
       <c r="N42" s="18"/>
     </row>
-    <row r="43" spans="1:14">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="18" t="s">
         <v>15</v>
       </c>
@@ -5263,7 +5258,7 @@
       <c r="L43" s="8"/>
       <c r="N43" s="18"/>
     </row>
-    <row r="44" spans="1:14">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="18" t="s">
         <v>18</v>
       </c>
@@ -5289,7 +5284,7 @@
       <c r="L44" s="18"/>
       <c r="N44" s="18"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="18" t="s">
         <v>7</v>
       </c>
@@ -5315,7 +5310,7 @@
       <c r="L45" s="18"/>
       <c r="N45" s="18"/>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="18" t="s">
         <v>48</v>
       </c>
@@ -5341,7 +5336,7 @@
       <c r="L46" s="18"/>
       <c r="N46" s="18"/>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="18" t="s">
         <v>6</v>
       </c>
@@ -5368,7 +5363,7 @@
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="18" t="s">
         <v>27</v>
       </c>
@@ -5395,7 +5390,7 @@
       <c r="L48" s="8"/>
       <c r="M48" s="18"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="18" t="s">
         <v>38</v>
       </c>
@@ -5422,7 +5417,7 @@
       <c r="L49" s="18"/>
       <c r="M49" s="18"/>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="18" t="s">
         <v>50</v>
       </c>
@@ -5449,7 +5444,7 @@
       <c r="L50" s="18"/>
       <c r="M50" s="18"/>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>11</v>
       </c>
@@ -5473,7 +5468,7 @@
       <c r="I51" s="18"/>
       <c r="K51" s="18"/>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="18" t="s">
         <v>31</v>
       </c>
@@ -5497,7 +5492,7 @@
       <c r="I52" s="18"/>
       <c r="K52" s="18"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>45</v>
       </c>
@@ -5520,7 +5515,7 @@
       <c r="I53" s="18"/>
       <c r="K53" s="18"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="29"/>
       <c r="C54" s="14"/>
@@ -5528,7 +5523,7 @@
       <c r="E54" s="14"/>
       <c r="K54" s="8"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="14">
         <f>COUNTIF(B3:B53, "&lt;4")</f>
@@ -5545,7 +5540,7 @@
       </c>
       <c r="K55" s="7"/>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="29"/>
       <c r="C56" s="14"/>
@@ -5553,13 +5548,13 @@
       <c r="E56" s="14"/>
       <c r="K56" s="7"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B57" s="30"/>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B58" s="30"/>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B59" s="30"/>
     </row>
   </sheetData>
@@ -5572,12 +5567,7 @@
     <sortCondition ref="J19"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5589,16 +5579,16 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="8.83203125" style="7"/>
+    <col min="1" max="1" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="7"/>
     <col min="5" max="5" width="22" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.5" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="7"/>
+    <col min="6" max="6" width="23.42578125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
         <v>42552</v>
@@ -5616,7 +5606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -5637,7 +5627,7 @@
         <v>-0.60000000000000053</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -5662,7 +5652,7 @@
         <v>-1.2999999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -5687,7 +5677,7 @@
         <v>0.29999999999999982</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -5712,7 +5702,7 @@
         <v>-0.10000000000000053</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -5737,7 +5727,7 @@
         <v>-0.60000000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -5762,7 +5752,7 @@
         <v>-0.60000000000000053</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -5787,7 +5777,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -5812,7 +5802,7 @@
         <v>-9.9999999999999645E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -5837,7 +5827,7 @@
         <v>0.39999999999999947</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
@@ -5862,7 +5852,7 @@
         <v>0.40000000000000036</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
@@ -5887,7 +5877,7 @@
         <v>-0.80000000000000071</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
@@ -5912,7 +5902,7 @@
         <v>-0.59999999999999964</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
@@ -5937,7 +5927,7 @@
         <v>-0.29999999999999982</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
@@ -5962,7 +5952,7 @@
         <v>-0.79999999999999982</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
@@ -5987,7 +5977,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
@@ -6012,7 +6002,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
@@ -6037,7 +6027,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
@@ -6062,7 +6052,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -6087,7 +6077,7 @@
         <v>0.29999999999999982</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
@@ -6112,7 +6102,7 @@
         <v>-0.90000000000000036</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -6137,7 +6127,7 @@
         <v>-0.29999999999999982</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
@@ -6162,7 +6152,7 @@
         <v>-0.29999999999999982</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>21</v>
       </c>
@@ -6187,7 +6177,7 @@
         <v>0.69999999999999973</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>22</v>
       </c>
@@ -6212,7 +6202,7 @@
         <v>-1.2000000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
@@ -6237,7 +6227,7 @@
         <v>-0.19999999999999973</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
@@ -6262,7 +6252,7 @@
         <v>-0.70000000000000018</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
@@ -6287,7 +6277,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
@@ -6312,7 +6302,7 @@
         <v>-0.19999999999999973</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>27</v>
       </c>
@@ -6337,7 +6327,7 @@
         <v>-0.40000000000000036</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>28</v>
       </c>
@@ -6362,7 +6352,7 @@
         <v>-0.79999999999999982</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>29</v>
       </c>
@@ -6387,7 +6377,7 @@
         <v>-0.10000000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
@@ -6412,7 +6402,7 @@
         <v>-0.89999999999999947</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>31</v>
       </c>
@@ -6437,7 +6427,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>32</v>
       </c>
@@ -6462,7 +6452,7 @@
         <v>-0.20000000000000018</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>33</v>
       </c>
@@ -6487,7 +6477,7 @@
         <v>-0.80000000000000071</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>34</v>
       </c>
@@ -6512,7 +6502,7 @@
         <v>-0.89999999999999991</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>35</v>
       </c>
@@ -6537,7 +6527,7 @@
         <v>0.29999999999999982</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>36</v>
       </c>
@@ -6562,7 +6552,7 @@
         <v>-0.59999999999999964</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>37</v>
       </c>
@@ -6587,7 +6577,7 @@
         <v>-1.2999999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>38</v>
       </c>
@@ -6612,7 +6602,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>39</v>
       </c>
@@ -6637,7 +6627,7 @@
         <v>-1.1000000000000005</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>40</v>
       </c>
@@ -6662,7 +6652,7 @@
         <v>-0.89999999999999991</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>41</v>
       </c>
@@ -6687,7 +6677,7 @@
         <v>0.20000000000000018</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -6712,7 +6702,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>43</v>
       </c>
@@ -6737,7 +6727,7 @@
         <v>-0.40000000000000036</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>44</v>
       </c>
@@ -6762,7 +6752,7 @@
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>45</v>
       </c>
@@ -6787,7 +6777,7 @@
         <v>-0.19999999999999973</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>46</v>
       </c>
@@ -6812,7 +6802,7 @@
         <v>-0.29999999999999982</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>47</v>
       </c>
@@ -6837,7 +6827,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>48</v>
       </c>
@@ -6862,7 +6852,7 @@
         <v>-1.2999999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>49</v>
       </c>
@@ -6887,7 +6877,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>50</v>
       </c>
@@ -6914,12 +6904,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6931,17 +6916,17 @@
       <selection activeCell="B4" sqref="B4:E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" style="32" customWidth="1"/>
-    <col min="3" max="4" width="11.33203125" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="32" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="7"/>
+    <col min="6" max="6" width="22.5703125" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
         <v>42552</v>
@@ -6959,7 +6944,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -6980,7 +6965,7 @@
         <v>1.4938701482101857</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -7005,7 +6990,7 @@
         <v>1.5885060960186159</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -7030,7 +7015,7 @@
         <v>-0.33122553447757497</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -7055,7 +7040,7 @@
         <v>1.227876106194703</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -7080,7 +7065,7 @@
         <v>2.6648194931138569</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -7105,7 +7090,7 @@
         <v>1.6743701424183799</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -7130,7 +7115,7 @@
         <v>1.6660268714011606</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -7155,7 +7140,7 @@
         <v>0.69022967987624195</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -7186,7 +7171,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
@@ -7217,7 +7202,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
@@ -7242,7 +7227,7 @@
         <v>2.6902629607164386</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
@@ -7267,7 +7252,7 @@
         <v>2.1945432977461321</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
@@ -7292,7 +7277,7 @@
         <v>1.2488436632747568</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
@@ -7317,7 +7302,7 @@
         <v>2.2512188127330246</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
@@ -7342,7 +7327,7 @@
         <v>0.55188004920376788</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
@@ -7367,7 +7352,7 @@
         <v>0.88406735751296317</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
@@ -7392,7 +7377,7 @@
         <v>1.0111930806410596</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
@@ -7417,7 +7402,7 @@
         <v>-0.76492669452512541</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -7442,7 +7427,7 @@
         <v>1.2131625533687407</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
@@ -7467,7 +7452,7 @@
         <v>0.59886317498984987</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -7492,7 +7477,7 @@
         <v>1.0192525481313552</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
@@ -7517,7 +7502,7 @@
         <v>1.8815716657443193</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>21</v>
       </c>
@@ -7542,7 +7527,7 @@
         <v>1.2652204338698292</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>22</v>
       </c>
@@ -7567,7 +7552,7 @@
         <v>1.4406094886298071</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
@@ -7592,7 +7577,7 @@
         <v>2.0831896254397408</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
@@ -7617,7 +7602,7 @@
         <v>0.50553473372265678</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
@@ -7642,7 +7627,7 @@
         <v>2.0457661077717848</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
@@ -7667,7 +7652,7 @@
         <v>1.1115861479264577</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>27</v>
       </c>
@@ -7692,7 +7677,7 @@
         <v>1.2396694214876103</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>28</v>
       </c>
@@ -7717,7 +7702,7 @@
         <v>2.7314460596786549</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>29</v>
       </c>
@@ -7742,7 +7727,7 @@
         <v>1.7814371257484973</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
@@ -7767,7 +7752,7 @@
         <v>1.1578947368421133</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>31</v>
       </c>
@@ -7792,7 +7777,7 @@
         <v>0.24090580582991628</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>32</v>
       </c>
@@ -7817,7 +7802,7 @@
         <v>1.466543481262006</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>33</v>
       </c>
@@ -7842,7 +7827,7 @@
         <v>1.480459770114928</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>34</v>
       </c>
@@ -7867,7 +7852,7 @@
         <v>1.517939282428693</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>35</v>
       </c>
@@ -7892,7 +7877,7 @@
         <v>0.86511492368774867</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>36</v>
       </c>
@@ -7917,7 +7902,7 @@
         <v>1.1038330907326532</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>37</v>
       </c>
@@ -7942,7 +7927,7 @@
         <v>2.9137338353249165</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>38</v>
       </c>
@@ -7967,7 +7952,7 @@
         <v>1.045449916839214</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>39</v>
       </c>
@@ -7992,7 +7977,7 @@
         <v>1.7322192785816259</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>40</v>
       </c>
@@ -8017,7 +8002,7 @@
         <v>1.4450586752012606</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>41</v>
       </c>
@@ -8042,7 +8027,7 @@
         <v>0.36883356385430943</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -8067,7 +8052,7 @@
         <v>1.6521973214886465</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>43</v>
       </c>
@@ -8092,7 +8077,7 @@
         <v>2.4383149531700621</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>44</v>
       </c>
@@ -8117,7 +8102,7 @@
         <v>2.5342083216978395</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>45</v>
       </c>
@@ -8142,7 +8127,7 @@
         <v>0.25324469768914781</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>46</v>
       </c>
@@ -8167,7 +8152,7 @@
         <v>1.5399938706711636</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>47</v>
       </c>
@@ -8192,7 +8177,7 @@
         <v>2.1957378664695826</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>48</v>
       </c>
@@ -8217,7 +8202,7 @@
         <v>0.21462105969147771</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>49</v>
       </c>
@@ -8242,7 +8227,7 @@
         <v>0.90499282835871941</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>50</v>
       </c>
@@ -8269,12 +8254,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8286,15 +8266,15 @@
       <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="1" width="17.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
         <v>42552</v>
@@ -8312,7 +8292,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -8333,7 +8313,7 @@
         <v>0.4537898189333589</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -8358,7 +8338,7 @@
         <v>-0.50026329647183676</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
@@ -8383,7 +8363,7 @@
         <v>-0.37037037037036535</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>2</v>
       </c>
@@ -8408,7 +8388,7 @@
         <v>0.87506076810890399</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
@@ -8433,7 +8413,7 @@
         <v>-0.51740357478833321</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -8458,7 +8438,7 @@
         <v>1.9490851233094686</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -8483,7 +8463,7 @@
         <v>0.91463414634147533</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
@@ -8508,7 +8488,7 @@
         <v>-1.313559322033897</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
@@ -8533,7 +8513,7 @@
         <v>-1.2176560121765601</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
@@ -8564,7 +8544,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>9</v>
       </c>
@@ -8595,7 +8575,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
@@ -8620,7 +8600,7 @@
         <v>0.74171029668412825</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
@@ -8645,7 +8625,7 @@
         <v>-2.0634920634920562</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
@@ -8670,7 +8650,7 @@
         <v>2.8712059064807116</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
@@ -8695,7 +8675,7 @@
         <v>-0.27804642166344706</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>14</v>
       </c>
@@ -8720,7 +8700,7 @@
         <v>0.11723329425556983</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
@@ -8745,7 +8725,7 @@
         <v>-0.92915214866434725</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
@@ -8770,7 +8750,7 @@
         <v>0.50860719874803451</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
@@ -8795,7 +8775,7 @@
         <v>-0.18838304552590834</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>18</v>
       </c>
@@ -8820,7 +8800,7 @@
         <v>-1.1100832562442209</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>19</v>
       </c>
@@ -8845,7 +8825,7 @@
         <v>1.5952143569292199</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>20</v>
       </c>
@@ -8870,7 +8850,7 @@
         <v>0.49534376857538476</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>21</v>
       </c>
@@ -8895,7 +8875,7 @@
         <v>0.50538343221269155</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>22</v>
       </c>
@@ -8920,7 +8900,7 @@
         <v>2.4945950440711684</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>23</v>
       </c>
@@ -8945,7 +8925,7 @@
         <v>1.1578449905482069</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>24</v>
       </c>
@@ -8970,7 +8950,7 @@
         <v>0.32719836400818547</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
@@ -8995,7 +8975,7 @@
         <v>2.9277218664226945</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>26</v>
       </c>
@@ -9020,7 +9000,7 @@
         <v>0.76419213973799582</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>27</v>
       </c>
@@ -9045,7 +9025,7 @@
         <v>-1.4942528735632177</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>28</v>
       </c>
@@ -9070,7 +9050,7 @@
         <v>0.94221105527638738</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>29</v>
       </c>
@@ -9095,7 +9075,7 @@
         <v>1.4428412874583962</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
@@ -9120,7 +9100,7 @@
         <v>-0.47100860808837464</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>31</v>
       </c>
@@ -9145,7 +9125,7 @@
         <v>-2.8287061288632787</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>32</v>
       </c>
@@ -9170,7 +9150,7 @@
         <v>0.5739575409722919</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>33</v>
       </c>
@@ -9195,7 +9175,7 @@
         <v>1.2873185428649681</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>34</v>
       </c>
@@ -9220,7 +9200,7 @@
         <v>-0.59808612440190867</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>35</v>
       </c>
@@ -9245,7 +9225,7 @@
         <v>0.61672876782732367</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>36</v>
       </c>
@@ -9270,7 +9250,7 @@
         <v>0.25452488687782715</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>37</v>
       </c>
@@ -9295,7 +9275,7 @@
         <v>0.45395590142673914</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>38</v>
       </c>
@@ -9320,7 +9300,7 @@
         <v>-1.8990012660008437</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>39</v>
       </c>
@@ -9345,7 +9325,7 @@
         <v>0.16447368421053099</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>40</v>
       </c>
@@ -9370,7 +9350,7 @@
         <v>0.21774632553075435</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>41</v>
       </c>
@@ -9395,7 +9375,7 @@
         <v>1.5170670037926604</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
@@ -9420,7 +9400,7 @@
         <v>1.685787871692801</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>43</v>
       </c>
@@ -9445,7 +9425,7 @@
         <v>1.4190273965508204</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>44</v>
       </c>
@@ -9470,7 +9450,7 @@
         <v>1.7580577647551276</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>45</v>
       </c>
@@ -9495,7 +9475,7 @@
         <v>-2.9513888888888951</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>46</v>
       </c>
@@ -9520,7 +9500,7 @@
         <v>0.19596864501678635</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>47</v>
       </c>
@@ -9545,7 +9525,7 @@
         <v>2.8955171812314662</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>48</v>
       </c>
@@ -9570,7 +9550,7 @@
         <v>-1.2226512226512276</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>49</v>
       </c>
@@ -9595,7 +9575,7 @@
         <v>0.36337209302326201</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>50</v>
       </c>
@@ -9622,11 +9602,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9638,13 +9613,13 @@
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="1" width="22.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
         <v>42552</v>
@@ -9659,7 +9634,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -9676,7 +9651,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
@@ -9693,7 +9668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="25" t="s">
         <v>2</v>
       </c>
@@ -9710,7 +9685,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
         <v>3</v>
       </c>
@@ -9727,7 +9702,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
         <v>4</v>
       </c>
@@ -9744,7 +9719,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="25" t="s">
         <v>5</v>
       </c>
@@ -9761,7 +9736,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
         <v>6</v>
       </c>
@@ -9778,7 +9753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="25" t="s">
         <v>7</v>
       </c>
@@ -9795,7 +9770,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -9812,7 +9787,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -9829,7 +9804,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -9846,7 +9821,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -9863,7 +9838,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -9880,7 +9855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -9897,7 +9872,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -9914,7 +9889,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -9931,7 +9906,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -9948,7 +9923,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -9965,7 +9940,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
@@ -9982,7 +9957,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -9999,7 +9974,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
@@ -10016,7 +9991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
@@ -10033,7 +10008,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
@@ -10050,7 +10025,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -10067,7 +10042,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -10084,7 +10059,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
@@ -10101,7 +10076,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
@@ -10118,7 +10093,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
@@ -10135,7 +10110,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
@@ -10152,7 +10127,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
@@ -10169,7 +10144,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
@@ -10186,7 +10161,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
@@ -10203,7 +10178,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
@@ -10220,7 +10195,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
@@ -10237,7 +10212,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
@@ -10254,7 +10229,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
@@ -10271,7 +10246,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
@@ -10288,7 +10263,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
@@ -10305,7 +10280,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>38</v>
       </c>
@@ -10322,7 +10297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>39</v>
       </c>
@@ -10339,7 +10314,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
@@ -10356,7 +10331,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>41</v>
       </c>
@@ -10373,7 +10348,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>42</v>
       </c>
@@ -10390,7 +10365,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>43</v>
       </c>
@@ -10407,7 +10382,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>44</v>
       </c>
@@ -10424,7 +10399,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>45</v>
       </c>
@@ -10441,7 +10416,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>46</v>
       </c>
@@ -10458,7 +10433,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>47</v>
       </c>
@@ -10475,7 +10450,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>48</v>
       </c>
@@ -10492,7 +10467,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
@@ -10509,7 +10484,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
@@ -10528,12 +10503,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10541,18 +10511,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="1" width="21.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
         <v>42552</v>
@@ -10567,7 +10537,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -10584,7 +10554,7 @@
         <v>2008.1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -10601,7 +10571,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -10618,7 +10588,7 @@
         <v>2745.3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -10635,7 +10605,7 @@
         <v>1259.8</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -10656,7 +10626,7 @@
       <c r="L6" s="36"/>
       <c r="M6" s="36"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -10673,7 +10643,7 @@
         <v>2648.4</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -10690,7 +10660,7 @@
         <v>1692.2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>116</v>
       </c>
@@ -10707,7 +10677,7 @@
         <v>455.8</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>117</v>
       </c>
@@ -10724,7 +10694,7 @@
         <v>797.1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -10741,7 +10711,7 @@
         <v>8634.2999999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -10758,7 +10728,7 @@
         <v>4479.8</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>118</v>
       </c>
@@ -10775,7 +10745,7 @@
         <v>656.7</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -10792,7 +10762,7 @@
         <v>713.1</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -10809,7 +10779,7 @@
         <v>6049</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -10826,7 +10796,7 @@
         <v>3115.3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -10843,7 +10813,7 @@
         <v>1588.3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -10860,7 +10830,7 @@
         <v>1401.1</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -10877,7 +10847,7 @@
         <v>1943.9</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
@@ -10894,7 +10864,7 @@
         <v>1982.2</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -10911,7 +10881,7 @@
         <v>624.4</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>119</v>
       </c>
@@ -10928,7 +10898,7 @@
         <v>2761.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
@@ -10945,7 +10915,7 @@
         <v>3617.7</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
@@ -10962,7 +10932,7 @@
         <v>4393.8999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -10979,7 +10949,7 @@
         <v>2959.8</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -10996,7 +10966,7 @@
         <v>1153.0999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
@@ -11013,7 +10983,7 @@
         <v>2903.1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
@@ -11030,7 +11000,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>120</v>
       </c>
@@ -11047,7 +11017,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
@@ -11064,7 +11034,7 @@
         <v>1342.7</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
@@ -11081,7 +11051,7 @@
         <v>679.9</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
@@ -11098,7 +11068,7 @@
         <v>4132.3</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
@@ -11115,7 +11085,7 @@
         <v>832.2</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
@@ -11132,7 +11102,7 @@
         <v>9554.7999999999993</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
@@ -11149,7 +11119,7 @@
         <v>4414.3999999999996</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
@@ -11166,7 +11136,7 @@
         <v>441.4</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
@@ -11183,7 +11153,7 @@
         <v>5538.1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
@@ -11200,7 +11170,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
@@ -11217,7 +11187,7 @@
         <v>1886.1</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>38</v>
       </c>
@@ -11234,7 +11204,7 @@
         <v>5953.8</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>39</v>
       </c>
@@ -11251,7 +11221,7 @@
         <v>499.2</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
@@ -11268,7 +11238,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>121</v>
       </c>
@@ -11285,7 +11255,7 @@
         <v>435.4</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>122</v>
       </c>
@@ -11302,7 +11272,7 @@
         <v>3020.9</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>43</v>
       </c>
@@ -11319,7 +11289,7 @@
         <v>12326.3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>44</v>
       </c>
@@ -11336,7 +11306,7 @@
         <v>1468.7</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>45</v>
       </c>
@@ -11353,7 +11323,7 @@
         <v>316.7</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>46</v>
       </c>
@@ -11370,7 +11340,7 @@
         <v>3975.9</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>47</v>
       </c>
@@ -11387,7 +11357,7 @@
         <v>3318.5</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>48</v>
       </c>
@@ -11404,7 +11374,7 @@
         <v>747.1</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
@@ -11421,7 +11391,7 @@
         <v>2954.7</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
@@ -11440,11 +11410,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11456,15 +11421,15 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" style="7"/>
-    <col min="3" max="3" width="13.83203125" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="1" width="15.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="13.85546875" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="4">
         <v>42552</v>
@@ -11479,7 +11444,7 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -11496,7 +11461,7 @@
         <v>377.9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -11513,7 +11478,7 @@
         <v>80.7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
@@ -11530,7 +11495,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -11547,7 +11512,7 @@
         <v>211.5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
@@ -11564,7 +11529,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
@@ -11581,7 +11546,7 @@
         <v>430.3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
@@ -11598,7 +11563,7 @@
         <v>232.9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
@@ -11615,7 +11580,7 @@
         <v>64.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -11632,7 +11597,7 @@
         <v>238.7</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -11649,7 +11614,7 @@
         <v>1111.7</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -11666,7 +11631,7 @@
         <v>692.7</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>11</v>
       </c>
@@ -11683,7 +11648,7 @@
         <v>123.4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -11700,7 +11665,7 @@
         <v>125.4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -11717,7 +11682,7 @@
         <v>824.9</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -11734,7 +11699,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -11751,7 +11716,7 @@
         <v>255.9</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>16</v>
       </c>
@@ -11768,7 +11733,7 @@
         <v>256.89999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>17</v>
       </c>
@@ -11785,7 +11750,7 @@
         <v>317.89999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>18</v>
       </c>
@@ -11802,7 +11767,7 @@
         <v>320.7</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>19</v>
       </c>
@@ -11819,7 +11784,7 @@
         <v>101.9</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
@@ -11836,7 +11801,7 @@
         <v>507.2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
@@ -11853,7 +11818,7 @@
         <v>457.4</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
@@ -11870,7 +11835,7 @@
         <v>616.29999999999995</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
@@ -11887,7 +11852,7 @@
         <v>428.1</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>24</v>
       </c>
@@ -11904,7 +11869,7 @@
         <v>245.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>25</v>
       </c>
@@ -11921,7 +11886,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
@@ -11938,7 +11903,7 @@
         <v>92.3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
@@ -11955,7 +11920,7 @@
         <v>171.4</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>28</v>
       </c>
@@ -11972,7 +11937,7 @@
         <v>160.69999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
@@ -11989,7 +11954,7 @@
         <v>91.4</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>30</v>
       </c>
@@ -12006,7 +11971,7 @@
         <v>612.79999999999995</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>31</v>
       </c>
@@ -12023,7 +11988,7 @@
         <v>185.5</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
@@ -12040,7 +12005,7 @@
         <v>1454.4</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>33</v>
       </c>
@@ -12057,7 +12022,7 @@
         <v>739.6</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>34</v>
       </c>
@@ -12074,7 +12039,7 @@
         <v>83.1</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>35</v>
       </c>
@@ -12091,7 +12056,7 @@
         <v>783.1</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>36</v>
       </c>
@@ -12108,7 +12073,7 @@
         <v>354.5</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>37</v>
       </c>
@@ -12125,7 +12090,7 @@
         <v>309.8</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>38</v>
       </c>
@@ -12142,7 +12107,7 @@
         <v>697.4</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>39</v>
       </c>
@@ -12159,7 +12124,7 @@
         <v>60.9</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>40</v>
       </c>
@@ -12176,7 +12141,7 @@
         <v>368.2</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>41</v>
       </c>
@@ -12193,7 +12158,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>42</v>
       </c>
@@ -12210,7 +12175,7 @@
         <v>434.3</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>43</v>
       </c>
@@ -12227,7 +12192,7 @@
         <v>1958.3</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>44</v>
       </c>
@@ -12244,7 +12209,7 @@
         <v>243.1</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>45</v>
       </c>
@@ -12261,7 +12226,7 @@
         <v>55.9</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>46</v>
       </c>
@@ -12278,7 +12243,7 @@
         <v>715.8</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>47</v>
       </c>
@@ -12295,7 +12260,7 @@
         <v>589.9</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>48</v>
       </c>
@@ -12312,7 +12277,7 @@
         <v>153.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>49</v>
       </c>
@@ -12329,7 +12294,7 @@
         <v>414.3</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
@@ -12348,11 +12313,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>